--- a/tests/sample_data/sample_data_1.xlsx
+++ b/tests/sample_data/sample_data_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samanderson/Desktop/greatbrowser (github)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Q004\Desktop\greatbrowser\tests\sample_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063351B1-020B-514E-AC50-03E90B76A002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8313DD37-BAFD-45CA-8CFA-B4F9B8BFA81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10300" yWindow="1780" windowWidth="28040" windowHeight="16800" xr2:uid="{136FD108-EA83-2541-8AD1-567454AD68A1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{136FD108-EA83-2541-8AD1-567454AD68A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,570 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="188">
   <si>
     <t>chr1</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Velvet</t>
+  </si>
+  <si>
+    <t>Mountain</t>
+  </si>
+  <si>
+    <t>Elephant</t>
+  </si>
+  <si>
+    <t>Harmony</t>
+  </si>
+  <si>
+    <t>Quantum</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>Puzzle</t>
+  </si>
+  <si>
+    <t>Starlight</t>
+  </si>
+  <si>
+    <t>Breeze</t>
+  </si>
+  <si>
+    <t>Fortress</t>
+  </si>
+  <si>
+    <t>Blueprint</t>
+  </si>
+  <si>
+    <t>Lantern</t>
+  </si>
+  <si>
+    <t>Echo</t>
+  </si>
+  <si>
+    <t>Whisper</t>
+  </si>
+  <si>
+    <t>Journey</t>
+  </si>
+  <si>
+    <t>Galaxy</t>
+  </si>
+  <si>
+    <t>Compass</t>
+  </si>
+  <si>
+    <t>Paradox</t>
+  </si>
+  <si>
+    <t>Melody</t>
+  </si>
+  <si>
+    <t>Crater</t>
+  </si>
+  <si>
+    <t>Tapestry</t>
+  </si>
+  <si>
+    <t>Riddle</t>
+  </si>
+  <si>
+    <t>Mirage</t>
+  </si>
+  <si>
+    <t>Falcon</t>
+  </si>
+  <si>
+    <t>Twilight</t>
+  </si>
+  <si>
+    <t>Orbit</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>Meadow</t>
+  </si>
+  <si>
+    <t>Tranquil</t>
+  </si>
+  <si>
+    <t>Feather</t>
+  </si>
+  <si>
+    <t>Hologram</t>
+  </si>
+  <si>
+    <t>Spiral</t>
+  </si>
+  <si>
+    <t>Summit</t>
+  </si>
+  <si>
+    <t>Cactus</t>
+  </si>
+  <si>
+    <t>Whistle</t>
+  </si>
+  <si>
+    <t>Jellyfish</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>Iceberg</t>
+  </si>
+  <si>
+    <t>Harvest</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>Vortex</t>
+  </si>
+  <si>
+    <t>Roar</t>
+  </si>
+  <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
+    <t>Paintbrush</t>
+  </si>
+  <si>
+    <t>Comet</t>
+  </si>
+  <si>
+    <t>Squirrel</t>
+  </si>
+  <si>
+    <t>Rhythms</t>
+  </si>
+  <si>
+    <t>Butterfly</t>
+  </si>
+  <si>
+    <t>Volcano</t>
+  </si>
+  <si>
+    <t>Tide</t>
+  </si>
+  <si>
+    <t>Indigo</t>
+  </si>
+  <si>
+    <t>Reflection</t>
+  </si>
+  <si>
+    <t>Rainbow</t>
+  </si>
+  <si>
+    <t>Forest</t>
+  </si>
+  <si>
+    <t>Lightning</t>
+  </si>
+  <si>
+    <t>Symphony</t>
+  </si>
+  <si>
+    <t>Horizon</t>
+  </si>
+  <si>
+    <t>Pebble</t>
+  </si>
+  <si>
+    <t>Dream</t>
+  </si>
+  <si>
+    <t>Trunk</t>
+  </si>
+  <si>
+    <t>Fern</t>
+  </si>
+  <si>
+    <t>Eclipse</t>
+  </si>
+  <si>
+    <t>Sapphire</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>Silence</t>
+  </si>
+  <si>
+    <t>Monarch</t>
+  </si>
+  <si>
+    <t>Raven</t>
+  </si>
+  <si>
+    <t>Euphoria</t>
+  </si>
+  <si>
+    <t>Driftwood</t>
+  </si>
+  <si>
+    <t>Flashlight</t>
+  </si>
+  <si>
+    <t>Treasure</t>
+  </si>
+  <si>
+    <t>Pyramid</t>
+  </si>
+  <si>
+    <t>Lava</t>
+  </si>
+  <si>
+    <t>Serenade</t>
+  </si>
+  <si>
+    <t>Snowflake</t>
+  </si>
+  <si>
+    <t>Zodiac</t>
+  </si>
+  <si>
+    <t>Seashell</t>
+  </si>
+  <si>
+    <t>Cedar</t>
+  </si>
+  <si>
+    <t>Meteor</t>
+  </si>
+  <si>
+    <t>Coral</t>
+  </si>
+  <si>
+    <t>Eon</t>
+  </si>
+  <si>
+    <t>Telescope</t>
+  </si>
+  <si>
+    <t>Crayon</t>
+  </si>
+  <si>
+    <t>Glimmer</t>
+  </si>
+  <si>
+    <t>Tidal</t>
+  </si>
+  <si>
+    <t>Geyser</t>
+  </si>
+  <si>
+    <t>Petal</t>
+  </si>
+  <si>
+    <t>Grove</t>
+  </si>
+  <si>
+    <t>Marble</t>
+  </si>
+  <si>
+    <t>Fountain</t>
+  </si>
+  <si>
+    <t>Plum</t>
+  </si>
+  <si>
+    <t>Daisy</t>
+  </si>
+  <si>
+    <t>Serene</t>
+  </si>
+  <si>
+    <t>Sanctuary</t>
+  </si>
+  <si>
+    <t>Phantom</t>
+  </si>
+  <si>
+    <t>Sunbeam</t>
+  </si>
+  <si>
+    <t>Perception</t>
+  </si>
+  <si>
+    <t>Waves</t>
+  </si>
+  <si>
+    <t>Orb</t>
+  </si>
+  <si>
+    <t>Desert</t>
+  </si>
+  <si>
+    <t>Obsidian</t>
+  </si>
+  <si>
+    <t>Arctic</t>
+  </si>
+  <si>
+    <t>Thunder</t>
+  </si>
+  <si>
+    <t>Clarity</t>
+  </si>
+  <si>
+    <t>Odyssey</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>Ember</t>
+  </si>
+  <si>
+    <t>Crescent</t>
+  </si>
+  <si>
+    <t>Refract</t>
+  </si>
+  <si>
+    <t>Mystery</t>
+  </si>
+  <si>
+    <t>Tumble</t>
+  </si>
+  <si>
+    <t>Dusk</t>
+  </si>
+  <si>
+    <t>Oasis</t>
+  </si>
+  <si>
+    <t>Lyric</t>
+  </si>
+  <si>
+    <t>Glacier</t>
+  </si>
+  <si>
+    <t>Wingspan</t>
+  </si>
+  <si>
+    <t>Halo</t>
+  </si>
+  <si>
+    <t>Wanderlust</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>Moonlight</t>
+  </si>
+  <si>
+    <t>Cobalt</t>
+  </si>
+  <si>
+    <t>Dawn</t>
+  </si>
+  <si>
+    <t>Ivory</t>
+  </si>
+  <si>
+    <t>Prism</t>
+  </si>
+  <si>
+    <t>Drizzle</t>
+  </si>
+  <si>
+    <t>Mystical</t>
+  </si>
+  <si>
+    <t>Clockwork</t>
+  </si>
+  <si>
+    <t>Tundra</t>
+  </si>
+  <si>
+    <t>Firefly</t>
+  </si>
+  <si>
+    <t>Sage</t>
+  </si>
+  <si>
+    <t>Gossamer</t>
+  </si>
+  <si>
+    <t>Raindrop</t>
+  </si>
+  <si>
+    <t>Shadow</t>
+  </si>
+  <si>
+    <t>Celestial</t>
+  </si>
+  <si>
+    <t>Secret</t>
+  </si>
+  <si>
+    <t>Opal</t>
+  </si>
+  <si>
+    <t>Fog</t>
+  </si>
+  <si>
+    <t>Blossom</t>
+  </si>
+  <si>
+    <t>Heartbeat</t>
+  </si>
+  <si>
+    <t>Cascade</t>
+  </si>
+  <si>
+    <t>Puddle</t>
+  </si>
+  <si>
+    <t>Twinkle</t>
+  </si>
+  <si>
+    <t>Essence</t>
+  </si>
+  <si>
+    <t>Stratus</t>
+  </si>
+  <si>
+    <t>Timber</t>
+  </si>
+  <si>
+    <t>Glisten</t>
+  </si>
+  <si>
+    <t>Vault</t>
+  </si>
+  <si>
+    <t>Snowdrop</t>
+  </si>
+  <si>
+    <t>Whirlpool</t>
+  </si>
+  <si>
+    <t>Moonbeam</t>
+  </si>
+  <si>
+    <t>Snowfall</t>
+  </si>
+  <si>
+    <t>Infinity</t>
+  </si>
+  <si>
+    <t>Hush</t>
+  </si>
+  <si>
+    <t>Lotus</t>
+  </si>
+  <si>
+    <t>Arcane</t>
+  </si>
+  <si>
+    <t>Saffron</t>
+  </si>
+  <si>
+    <t>Windswept</t>
+  </si>
+  <si>
+    <t>Zephyr</t>
+  </si>
+  <si>
+    <t>Alchemy</t>
+  </si>
+  <si>
+    <t>Frost</t>
+  </si>
+  <si>
+    <t>Radiance</t>
+  </si>
+  <si>
+    <t>Ponder</t>
+  </si>
+  <si>
+    <t>Solstice</t>
+  </si>
+  <si>
+    <t>Lullaby</t>
+  </si>
+  <si>
+    <t>Petrichor</t>
+  </si>
+  <si>
+    <t>Pinnacle</t>
+  </si>
+  <si>
+    <t>Lunar</t>
+  </si>
+  <si>
+    <t>Crystallize</t>
+  </si>
+  <si>
+    <t>Tranquility</t>
+  </si>
+  <si>
+    <t>Silent</t>
+  </si>
+  <si>
+    <t>Aura</t>
+  </si>
+  <si>
+    <t>Zenith</t>
+  </si>
+  <si>
+    <t>Seraphic</t>
+  </si>
+  <si>
+    <t>Starry</t>
+  </si>
+  <si>
+    <t>Paragon</t>
+  </si>
+  <si>
+    <t>Mosaic</t>
+  </si>
+  <si>
+    <t>Drift</t>
+  </si>
+  <si>
+    <t>Beacon</t>
+  </si>
+  <si>
+    <t>Elixir</t>
+  </si>
+  <si>
+    <t>Skyline</t>
+  </si>
+  <si>
+    <t>Nectar</t>
+  </si>
+  <si>
+    <t>Enigma</t>
+  </si>
+  <si>
+    <t>Serenity</t>
+  </si>
+  <si>
+    <t>Lighthouse</t>
+  </si>
+  <si>
+    <t>Illusion</t>
+  </si>
+  <si>
+    <t>Wander</t>
   </si>
 </sst>
 </file>
@@ -74,9 +635,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,3643 +974,4632 @@
   <dimension ref="A1:D330"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>4490591</v>
       </c>
-      <c r="C1">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1">
         <v>4490819</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>4748088</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
         <v>4748507</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3">
         <v>4768378</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
         <v>4780503</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
         <v>4848009</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
         <v>4848547</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5">
         <v>5046471</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
         <v>5046985</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6">
         <v>5146655</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
         <v>5146913</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7">
         <v>6223968</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
         <v>6224424</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8">
         <v>6272189</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
         <v>6272652</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9">
         <v>6382625</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
         <v>6383349</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10">
         <v>6406097</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
         <v>6418328</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
       <c r="B11">
         <v>6440999</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
         <v>6467664</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
       <c r="B12">
         <v>6519146</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
         <v>6519517</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
       <c r="B13">
         <v>6859080</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
         <v>6859305</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
       <c r="B14">
         <v>7010246</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
         <v>7010559</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
       <c r="B15">
         <v>7095653</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
         <v>7096621</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
       <c r="B16">
         <v>7146971</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16">
         <v>7147439</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
       <c r="B17">
         <v>7163816</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
         <v>7164139</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
       <c r="B18">
         <v>7204709</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18">
         <v>7207013</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
       <c r="B19">
         <v>7395389</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19">
         <v>7398816</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
       <c r="B20">
         <v>7414448</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20">
         <v>7414870</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
       <c r="B21">
         <v>7454903</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21">
         <v>7458292</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
       <c r="B22">
         <v>7543551</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22">
         <v>7543812</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
       <c r="B23">
         <v>9541159</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23">
         <v>9541756</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
       <c r="B24">
         <v>9573291</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24">
         <v>9573529</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
       <c r="B25">
         <v>9592107</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25">
         <v>9592462</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
       <c r="B26">
         <v>9703044</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26">
         <v>9703415</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
       <c r="B27">
         <v>9772717</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27">
         <v>9773184</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
       <c r="B28">
         <v>9805865</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28">
         <v>9808031</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
       <c r="B29">
         <v>9822934</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29">
         <v>9824155</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
       <c r="B30">
         <v>9858949</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30">
         <v>9863999</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
       <c r="B31">
         <v>9878175</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31">
         <v>9883820</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
       <c r="B32">
         <v>10089445</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32">
         <v>10089962</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
       <c r="B33">
         <v>10216977</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33">
         <v>10225922</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
       <c r="B34">
         <v>10256641</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34">
         <v>10257939</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
       <c r="B35">
         <v>10284677</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35">
         <v>10284932</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
       <c r="B36">
         <v>10325387</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36">
         <v>10325799</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
       <c r="B37">
         <v>11065232</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37">
         <v>11065495</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
       <c r="B38">
         <v>11097225</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38">
         <v>11098052</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
       <c r="B39">
         <v>11229234</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39">
         <v>11230156</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
       <c r="B40">
         <v>12863980</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40">
         <v>12875940</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
       <c r="B41">
         <v>13050259</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41">
         <v>13052525</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
       <c r="B42">
         <v>13110423</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42">
         <v>13118063</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
       <c r="B43">
         <v>13134325</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43">
         <v>13134691</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
       <c r="B44">
         <v>13151067</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44">
         <v>13171571</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
       <c r="B45">
         <v>13215391</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45">
         <v>13231799</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
       <c r="B46">
         <v>13245108</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46">
         <v>13317471</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
       <c r="B47">
         <v>13332687</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47">
         <v>13342912</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
       <c r="B48">
         <v>13360740</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48">
         <v>13364699</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
       <c r="B49">
         <v>13382098</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49">
         <v>13383889</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
       <c r="B50">
         <v>13425927</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50">
         <v>13427711</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
       <c r="B51">
         <v>13454291</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51">
         <v>13455159</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
       <c r="B52">
         <v>13494723</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52">
         <v>13500833</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
       <c r="B53">
         <v>13513604</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53">
         <v>13531920</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
       <c r="B54">
         <v>13559152</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54">
         <v>13560321</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
       <c r="B55">
         <v>13574107</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55">
         <v>13587364</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
       <c r="B56">
         <v>13592364</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56">
         <v>13616353</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
       <c r="B57">
         <v>13639520</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57">
         <v>13639940</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>0</v>
       </c>
       <c r="B58">
         <v>13706377</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58">
         <v>13706648</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>0</v>
       </c>
       <c r="B59">
         <v>13980314</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59">
         <v>13980553</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
       <c r="B60">
         <v>13993712</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60">
         <v>13994671</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
       <c r="B61">
         <v>14104496</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61">
         <v>14104794</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
       <c r="B62">
         <v>14143983</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62">
         <v>14144275</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
       <c r="B63">
         <v>14253781</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63">
         <v>14254219</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
       <c r="B64">
         <v>14740007</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64">
         <v>14740381</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
       <c r="B65">
         <v>14762416</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65">
         <v>14763014</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
       <c r="B66">
         <v>14924723</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66">
         <v>14925369</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>0</v>
       </c>
       <c r="B67">
         <v>15544275</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67">
         <v>15544647</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>0</v>
       </c>
       <c r="B68">
         <v>15791719</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="s">
+        <v>59</v>
+      </c>
+      <c r="D68">
         <v>15792301</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>0</v>
       </c>
       <c r="B69">
         <v>15850683</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69">
         <v>15851155</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>0</v>
       </c>
       <c r="B70">
         <v>15882764</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="s">
+        <v>61</v>
+      </c>
+      <c r="D70">
         <v>15883793</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>0</v>
       </c>
       <c r="B71">
         <v>16023079</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="s">
+        <v>62</v>
+      </c>
+      <c r="D71">
         <v>16023620</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>0</v>
       </c>
       <c r="B72">
         <v>16115362</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72">
         <v>16115578</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>0</v>
       </c>
       <c r="B73">
         <v>16161746</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73">
         <v>16163567</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>0</v>
       </c>
       <c r="B74">
         <v>16177367</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74">
         <v>16178458</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>0</v>
       </c>
       <c r="B75">
         <v>16219950</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="s">
+        <v>64</v>
+      </c>
+      <c r="D75">
         <v>16228785</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>0</v>
       </c>
       <c r="B76">
         <v>16304911</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="s">
+        <v>65</v>
+      </c>
+      <c r="D76">
         <v>16305191</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>0</v>
       </c>
       <c r="B77">
         <v>16433474</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77">
         <v>16440559</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>0</v>
       </c>
       <c r="B78">
         <v>16533923</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78">
         <v>16534721</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
       <c r="B79">
         <v>16627292</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79">
         <v>16627603</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>0</v>
       </c>
       <c r="B80">
         <v>16641837</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="s">
+        <v>66</v>
+      </c>
+      <c r="D80">
         <v>16642748</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>0</v>
       </c>
       <c r="B81">
         <v>16671059</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81">
         <v>16671479</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>0</v>
       </c>
       <c r="B82">
         <v>16745967</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="s">
+        <v>67</v>
+      </c>
+      <c r="D82">
         <v>16747786</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>0</v>
       </c>
       <c r="B83">
         <v>20259880</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83">
         <v>20260351</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>0</v>
       </c>
       <c r="B84">
         <v>20725571</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="s">
+        <v>69</v>
+      </c>
+      <c r="D84">
         <v>20725981</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
       <c r="B85">
         <v>20738579</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="s">
+        <v>70</v>
+      </c>
+      <c r="D85">
         <v>20767093</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>0</v>
       </c>
       <c r="B86">
         <v>20824732</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="s">
+        <v>58</v>
+      </c>
+      <c r="D86">
         <v>20825612</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>0</v>
       </c>
       <c r="B87">
         <v>20875783</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87">
         <v>20876016</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>0</v>
       </c>
       <c r="B88">
         <v>20899294</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="s">
+        <v>71</v>
+      </c>
+      <c r="D88">
         <v>20913373</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>0</v>
       </c>
       <c r="B89">
         <v>20926053</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="s">
+        <v>72</v>
+      </c>
+      <c r="D89">
         <v>20941683</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>0</v>
       </c>
       <c r="B90">
         <v>20981744</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="s">
+        <v>73</v>
+      </c>
+      <c r="D90">
         <v>20987040</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>0</v>
       </c>
       <c r="B91">
         <v>21004575</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="s">
+        <v>74</v>
+      </c>
+      <c r="D91">
         <v>21005043</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>0</v>
       </c>
       <c r="B92">
         <v>21028913</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="s">
+        <v>75</v>
+      </c>
+      <c r="D92">
         <v>21064596</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>0</v>
       </c>
       <c r="B93">
         <v>21094843</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93">
         <v>21101577</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>0</v>
       </c>
       <c r="B94">
         <v>21161731</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="s">
+        <v>76</v>
+      </c>
+      <c r="D94">
         <v>21166810</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>0</v>
       </c>
       <c r="B95">
         <v>21271174</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="s">
+        <v>77</v>
+      </c>
+      <c r="D95">
         <v>21295812</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>0</v>
       </c>
       <c r="B96">
         <v>21300812</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="s">
+        <v>53</v>
+      </c>
+      <c r="D96">
         <v>21344763</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>0</v>
       </c>
       <c r="B97">
         <v>21411192</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="s">
+        <v>78</v>
+      </c>
+      <c r="D97">
         <v>21411590</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>0</v>
       </c>
       <c r="B98">
         <v>21425647</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="s">
+        <v>79</v>
+      </c>
+      <c r="D98">
         <v>21426051</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>0</v>
       </c>
       <c r="B99">
         <v>21461113</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="s">
+        <v>80</v>
+      </c>
+      <c r="D99">
         <v>21469779</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>0</v>
       </c>
       <c r="B100">
         <v>21522049</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100">
         <v>21522304</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>0</v>
       </c>
       <c r="B101">
         <v>21618643</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101">
         <v>21619191</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>0</v>
       </c>
       <c r="B102">
         <v>21639630</v>
       </c>
-      <c r="C102">
+      <c r="C102" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102">
         <v>21640438</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>0</v>
       </c>
       <c r="B103">
         <v>21780685</v>
       </c>
-      <c r="C103">
+      <c r="C103" t="s">
+        <v>81</v>
+      </c>
+      <c r="D103">
         <v>21781642</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>0</v>
       </c>
       <c r="B104">
         <v>21829672</v>
       </c>
-      <c r="C104">
+      <c r="C104" t="s">
+        <v>82</v>
+      </c>
+      <c r="D104">
         <v>21838006</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>0</v>
       </c>
       <c r="B105">
         <v>21896146</v>
       </c>
-      <c r="C105">
+      <c r="C105" t="s">
+        <v>83</v>
+      </c>
+      <c r="D105">
         <v>21896715</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>0</v>
       </c>
       <c r="B106">
         <v>22269009</v>
       </c>
-      <c r="C106">
+      <c r="C106" t="s">
+        <v>84</v>
+      </c>
+      <c r="D106">
         <v>22269323</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>0</v>
       </c>
       <c r="B107">
         <v>23255715</v>
       </c>
-      <c r="C107">
+      <c r="C107" t="s">
+        <v>85</v>
+      </c>
+      <c r="D107">
         <v>23257264</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>0</v>
       </c>
       <c r="B108">
         <v>23286698</v>
       </c>
-      <c r="C108">
+      <c r="C108" t="s">
+        <v>86</v>
+      </c>
+      <c r="D108">
         <v>23287150</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>0</v>
       </c>
       <c r="B109">
         <v>23321000</v>
       </c>
-      <c r="C109">
+      <c r="C109" t="s">
+        <v>87</v>
+      </c>
+      <c r="D109">
         <v>23321817</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>0</v>
       </c>
       <c r="B110">
         <v>23399470</v>
       </c>
-      <c r="C110">
+      <c r="C110" t="s">
+        <v>88</v>
+      </c>
+      <c r="D110">
         <v>23400070</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>0</v>
       </c>
       <c r="B111">
         <v>23792786</v>
       </c>
-      <c r="C111">
+      <c r="C111" t="s">
+        <v>89</v>
+      </c>
+      <c r="D111">
         <v>23793142</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>0</v>
       </c>
       <c r="B112">
         <v>23827047</v>
       </c>
-      <c r="C112">
+      <c r="C112" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112">
         <v>23827518</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>0</v>
       </c>
       <c r="B113">
         <v>23882570</v>
       </c>
-      <c r="C113">
+      <c r="C113" t="s">
+        <v>90</v>
+      </c>
+      <c r="D113">
         <v>23883199</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>0</v>
       </c>
       <c r="B114">
         <v>23896115</v>
       </c>
-      <c r="C114">
+      <c r="C114" t="s">
+        <v>91</v>
+      </c>
+      <c r="D114">
         <v>23907236</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>0</v>
       </c>
       <c r="B115">
         <v>23912236</v>
       </c>
-      <c r="C115">
+      <c r="C115" t="s">
+        <v>46</v>
+      </c>
+      <c r="D115">
         <v>23918137</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>0</v>
       </c>
       <c r="B116">
         <v>23934622</v>
       </c>
-      <c r="C116">
+      <c r="C116" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116">
         <v>23935124</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>0</v>
       </c>
       <c r="B117">
         <v>23958831</v>
       </c>
-      <c r="C117">
+      <c r="C117" t="s">
+        <v>92</v>
+      </c>
+      <c r="D117">
         <v>23959658</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>0</v>
       </c>
       <c r="B118">
         <v>23983146</v>
       </c>
-      <c r="C118">
+      <c r="C118" t="s">
+        <v>93</v>
+      </c>
+      <c r="D118">
         <v>23983436</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>0</v>
       </c>
       <c r="B119">
         <v>23999247</v>
       </c>
-      <c r="C119">
+      <c r="C119" t="s">
+        <v>58</v>
+      </c>
+      <c r="D119">
         <v>23999769</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>0</v>
       </c>
       <c r="B120">
         <v>24034085</v>
       </c>
-      <c r="C120">
+      <c r="C120" t="s">
+        <v>94</v>
+      </c>
+      <c r="D120">
         <v>24046063</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>0</v>
       </c>
       <c r="B121">
         <v>24683921</v>
       </c>
-      <c r="C121">
+      <c r="C121" t="s">
+        <v>95</v>
+      </c>
+      <c r="D121">
         <v>24684418</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>0</v>
       </c>
       <c r="B122">
         <v>24699356</v>
       </c>
-      <c r="C122">
+      <c r="C122" t="s">
+        <v>96</v>
+      </c>
+      <c r="D122">
         <v>24699711</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>0</v>
       </c>
       <c r="B123">
         <v>24713393</v>
       </c>
-      <c r="C123">
+      <c r="C123" t="s">
+        <v>31</v>
+      </c>
+      <c r="D123">
         <v>24713824</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>0</v>
       </c>
       <c r="B124">
         <v>30792923</v>
       </c>
-      <c r="C124">
+      <c r="C124" t="s">
+        <v>97</v>
+      </c>
+      <c r="D124">
         <v>30793328</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>0</v>
       </c>
       <c r="B125">
         <v>30809930</v>
       </c>
-      <c r="C125">
+      <c r="C125" t="s">
+        <v>17</v>
+      </c>
+      <c r="D125">
         <v>30810722</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>0</v>
       </c>
       <c r="B126">
         <v>30832798</v>
       </c>
-      <c r="C126">
+      <c r="C126" t="s">
+        <v>91</v>
+      </c>
+      <c r="D126">
         <v>30833113</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>0</v>
       </c>
       <c r="B127">
         <v>30848184</v>
       </c>
-      <c r="C127">
+      <c r="C127" t="s">
+        <v>30</v>
+      </c>
+      <c r="D127">
         <v>30852524</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>0</v>
       </c>
       <c r="B128">
         <v>30872329</v>
       </c>
-      <c r="C128">
+      <c r="C128" t="s">
+        <v>98</v>
+      </c>
+      <c r="D128">
         <v>30875273</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>0</v>
       </c>
       <c r="B129">
         <v>30898644</v>
       </c>
-      <c r="C129">
+      <c r="C129" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129">
         <v>30899121</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>0</v>
       </c>
       <c r="B130">
         <v>30920672</v>
       </c>
-      <c r="C130">
+      <c r="C130" t="s">
+        <v>99</v>
+      </c>
+      <c r="D130">
         <v>30921722</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>0</v>
       </c>
       <c r="B131">
         <v>31129781</v>
       </c>
-      <c r="C131">
+      <c r="C131" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131">
         <v>31130020</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>0</v>
       </c>
       <c r="B132">
         <v>31153960</v>
       </c>
-      <c r="C132">
+      <c r="C132" t="s">
+        <v>100</v>
+      </c>
+      <c r="D132">
         <v>31154334</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>0</v>
       </c>
       <c r="B133">
         <v>31595694</v>
       </c>
-      <c r="C133">
+      <c r="C133" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133">
         <v>31595903</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>0</v>
       </c>
       <c r="B134">
         <v>33565712</v>
       </c>
-      <c r="C134">
+      <c r="C134" t="s">
+        <v>101</v>
+      </c>
+      <c r="D134">
         <v>33579187</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>0</v>
       </c>
       <c r="B135">
         <v>33594118</v>
       </c>
-      <c r="C135">
+      <c r="C135" t="s">
+        <v>102</v>
+      </c>
+      <c r="D135">
         <v>33594374</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>0</v>
       </c>
       <c r="B136">
         <v>33663210</v>
       </c>
-      <c r="C136">
+      <c r="C136" t="s">
+        <v>103</v>
+      </c>
+      <c r="D136">
         <v>33663544</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>0</v>
       </c>
       <c r="B137">
         <v>33684422</v>
       </c>
-      <c r="C137">
+      <c r="C137" t="s">
+        <v>75</v>
+      </c>
+      <c r="D137">
         <v>33684901</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>0</v>
       </c>
       <c r="B138">
         <v>33738591</v>
       </c>
-      <c r="C138">
+      <c r="C138" t="s">
+        <v>104</v>
+      </c>
+      <c r="D138">
         <v>33743251</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>0</v>
       </c>
       <c r="B139">
         <v>33883180</v>
       </c>
-      <c r="C139">
+      <c r="C139" t="s">
+        <v>105</v>
+      </c>
+      <c r="D139">
         <v>33899268</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>0</v>
       </c>
       <c r="B140">
         <v>33942659</v>
       </c>
-      <c r="C140">
+      <c r="C140" t="s">
+        <v>14</v>
+      </c>
+      <c r="D140">
         <v>33943075</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>0</v>
       </c>
       <c r="B141">
         <v>33964707</v>
       </c>
-      <c r="C141">
+      <c r="C141" t="s">
+        <v>106</v>
+      </c>
+      <c r="D141">
         <v>33966670</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>0</v>
       </c>
       <c r="B142">
         <v>33994206</v>
       </c>
-      <c r="C142">
+      <c r="C142" t="s">
+        <v>107</v>
+      </c>
+      <c r="D142">
         <v>34006027</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>0</v>
       </c>
       <c r="B143">
         <v>34028746</v>
       </c>
-      <c r="C143">
+      <c r="C143" t="s">
+        <v>22</v>
+      </c>
+      <c r="D143">
         <v>34029033</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>0</v>
       </c>
       <c r="B144">
         <v>34061174</v>
       </c>
-      <c r="C144">
+      <c r="C144" t="s">
+        <v>108</v>
+      </c>
+      <c r="D144">
         <v>34061388</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>0</v>
       </c>
       <c r="B145">
         <v>34187384</v>
       </c>
-      <c r="C145">
+      <c r="C145" t="s">
+        <v>36</v>
+      </c>
+      <c r="D145">
         <v>34188711</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>0</v>
       </c>
       <c r="B146">
         <v>34218335</v>
       </c>
-      <c r="C146">
+      <c r="C146" t="s">
+        <v>109</v>
+      </c>
+      <c r="D146">
         <v>34218768</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>0</v>
       </c>
       <c r="B147">
         <v>34236366</v>
       </c>
-      <c r="C147">
+      <c r="C147" t="s">
+        <v>110</v>
+      </c>
+      <c r="D147">
         <v>34236808</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>0</v>
       </c>
       <c r="B148">
         <v>34409947</v>
       </c>
-      <c r="C148">
+      <c r="C148" t="s">
+        <v>26</v>
+      </c>
+      <c r="D148">
         <v>34410149</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>0</v>
       </c>
       <c r="B149">
         <v>34462678</v>
       </c>
-      <c r="C149">
+      <c r="C149" t="s">
+        <v>50</v>
+      </c>
+      <c r="D149">
         <v>34486300</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>0</v>
       </c>
       <c r="B150">
         <v>34510407</v>
       </c>
-      <c r="C150">
+      <c r="C150" t="s">
+        <v>111</v>
+      </c>
+      <c r="D150">
         <v>34511460</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>0</v>
       </c>
       <c r="B151">
         <v>34554300</v>
       </c>
-      <c r="C151">
+      <c r="C151" t="s">
+        <v>112</v>
+      </c>
+      <c r="D151">
         <v>34554787</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>0</v>
       </c>
       <c r="B152">
         <v>34602335</v>
       </c>
-      <c r="C152">
+      <c r="C152" t="s">
+        <v>113</v>
+      </c>
+      <c r="D152">
         <v>34602777</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>0</v>
       </c>
       <c r="B153">
         <v>34738424</v>
       </c>
-      <c r="C153">
+      <c r="C153" t="s">
+        <v>114</v>
+      </c>
+      <c r="D153">
         <v>34738739</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>0</v>
       </c>
       <c r="B154">
         <v>34825943</v>
       </c>
-      <c r="C154">
+      <c r="C154" t="s">
+        <v>115</v>
+      </c>
+      <c r="D154">
         <v>34835607</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>0</v>
       </c>
       <c r="B155">
         <v>34867200</v>
       </c>
-      <c r="C155">
+      <c r="C155" t="s">
+        <v>24</v>
+      </c>
+      <c r="D155">
         <v>34867668</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>0</v>
       </c>
       <c r="B156">
         <v>34896966</v>
       </c>
-      <c r="C156">
+      <c r="C156" t="s">
+        <v>75</v>
+      </c>
+      <c r="D156">
         <v>34897255</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>0</v>
       </c>
       <c r="B157">
         <v>35580232</v>
       </c>
-      <c r="C157">
+      <c r="C157" t="s">
+        <v>22</v>
+      </c>
+      <c r="D157">
         <v>35580923</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>0</v>
       </c>
       <c r="B158">
         <v>35640236</v>
       </c>
-      <c r="C158">
+      <c r="C158" t="s">
+        <v>53</v>
+      </c>
+      <c r="D158">
         <v>35640466</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>0</v>
       </c>
       <c r="B159">
         <v>35653091</v>
       </c>
-      <c r="C159">
+      <c r="C159" t="s">
+        <v>116</v>
+      </c>
+      <c r="D159">
         <v>35653959</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>0</v>
       </c>
       <c r="B160">
         <v>35708329</v>
       </c>
-      <c r="C160">
+      <c r="C160" t="s">
+        <v>117</v>
+      </c>
+      <c r="D160">
         <v>35709672</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>0</v>
       </c>
       <c r="B161">
         <v>35726654</v>
       </c>
-      <c r="C161">
+      <c r="C161" t="s">
+        <v>118</v>
+      </c>
+      <c r="D161">
         <v>35726961</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>0</v>
       </c>
       <c r="B162">
         <v>35813709</v>
       </c>
-      <c r="C162">
+      <c r="C162" t="s">
+        <v>119</v>
+      </c>
+      <c r="D162">
         <v>35820094</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>0</v>
       </c>
       <c r="B163">
         <v>35839391</v>
       </c>
-      <c r="C163">
+      <c r="C163" t="s">
+        <v>120</v>
+      </c>
+      <c r="D163">
         <v>35846862</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>0</v>
       </c>
       <c r="B164">
         <v>35860804</v>
       </c>
-      <c r="C164">
+      <c r="C164" t="s">
+        <v>121</v>
+      </c>
+      <c r="D164">
         <v>35862652</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>0</v>
       </c>
       <c r="B165">
         <v>35889721</v>
       </c>
-      <c r="C165">
+      <c r="C165" t="s">
+        <v>122</v>
+      </c>
+      <c r="D165">
         <v>35891107</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>0</v>
       </c>
       <c r="B166">
         <v>35934993</v>
       </c>
-      <c r="C166">
+      <c r="C166" t="s">
+        <v>123</v>
+      </c>
+      <c r="D166">
         <v>35935590</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>0</v>
       </c>
       <c r="B167">
         <v>35971437</v>
       </c>
-      <c r="C167">
+      <c r="C167" t="s">
+        <v>124</v>
+      </c>
+      <c r="D167">
         <v>35983698</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>0</v>
       </c>
       <c r="B168">
         <v>36024599</v>
       </c>
-      <c r="C168">
+      <c r="C168" t="s">
+        <v>116</v>
+      </c>
+      <c r="D168">
         <v>36025926</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>0</v>
       </c>
       <c r="B169">
         <v>36064670</v>
       </c>
-      <c r="C169">
+      <c r="C169" t="s">
+        <v>58</v>
+      </c>
+      <c r="D169">
         <v>36065406</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>0</v>
       </c>
       <c r="B170">
         <v>36097625</v>
       </c>
-      <c r="C170">
+      <c r="C170" t="s">
+        <v>125</v>
+      </c>
+      <c r="D170">
         <v>36106908</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>0</v>
       </c>
       <c r="B171">
         <v>36130226</v>
       </c>
-      <c r="C171">
+      <c r="C171" t="s">
+        <v>13</v>
+      </c>
+      <c r="D171">
         <v>36141813</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>0</v>
       </c>
       <c r="B172">
         <v>36146813</v>
       </c>
-      <c r="C172">
+      <c r="C172" t="s">
+        <v>53</v>
+      </c>
+      <c r="D172">
         <v>36163271</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>0</v>
       </c>
       <c r="B173">
         <v>36252646</v>
       </c>
-      <c r="C173">
+      <c r="C173" t="s">
+        <v>79</v>
+      </c>
+      <c r="D173">
         <v>36265111</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>0</v>
       </c>
       <c r="B174">
         <v>36279098</v>
       </c>
-      <c r="C174">
+      <c r="C174" t="s">
+        <v>63</v>
+      </c>
+      <c r="D174">
         <v>36305232</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>0</v>
       </c>
       <c r="B175">
         <v>36310232</v>
       </c>
-      <c r="C175">
+      <c r="C175" t="s">
+        <v>126</v>
+      </c>
+      <c r="D175">
         <v>36324435</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>0</v>
       </c>
       <c r="B176">
         <v>36435097</v>
       </c>
-      <c r="C176">
+      <c r="C176" t="s">
+        <v>127</v>
+      </c>
+      <c r="D176">
         <v>36435471</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>0</v>
       </c>
       <c r="B177">
         <v>36461717</v>
       </c>
-      <c r="C177">
+      <c r="C177" t="s">
+        <v>60</v>
+      </c>
+      <c r="D177">
         <v>36462486</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>0</v>
       </c>
       <c r="B178">
         <v>36501237</v>
       </c>
-      <c r="C178">
+      <c r="C178" t="s">
+        <v>31</v>
+      </c>
+      <c r="D178">
         <v>36501702</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>0</v>
       </c>
       <c r="B179">
         <v>36571538</v>
       </c>
-      <c r="C179">
+      <c r="C179" t="s">
+        <v>128</v>
+      </c>
+      <c r="D179">
         <v>36572010</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>0</v>
       </c>
       <c r="B180">
         <v>36590497</v>
       </c>
-      <c r="C180">
+      <c r="C180" t="s">
+        <v>129</v>
+      </c>
+      <c r="D180">
         <v>36590821</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>0</v>
       </c>
       <c r="B181">
         <v>36604195</v>
       </c>
-      <c r="C181">
+      <c r="C181" t="s">
+        <v>65</v>
+      </c>
+      <c r="D181">
         <v>36611956</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>0</v>
       </c>
       <c r="B182">
         <v>36630399</v>
       </c>
-      <c r="C182">
+      <c r="C182" t="s">
+        <v>130</v>
+      </c>
+      <c r="D182">
         <v>36635401</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>0</v>
       </c>
       <c r="B183">
         <v>36719225</v>
       </c>
-      <c r="C183">
+      <c r="C183" t="s">
+        <v>102</v>
+      </c>
+      <c r="D183">
         <v>36723967</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>0</v>
       </c>
       <c r="B184">
         <v>36737252</v>
       </c>
-      <c r="C184">
+      <c r="C184" t="s">
+        <v>13</v>
+      </c>
+      <c r="D184">
         <v>36746799</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>0</v>
       </c>
       <c r="B185">
         <v>36784551</v>
       </c>
-      <c r="C185">
+      <c r="C185" t="s">
+        <v>29</v>
+      </c>
+      <c r="D185">
         <v>36836865</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>0</v>
       </c>
       <c r="B186">
         <v>36860654</v>
       </c>
-      <c r="C186">
+      <c r="C186" t="s">
+        <v>63</v>
+      </c>
+      <c r="D186">
         <v>36931334</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>0</v>
       </c>
       <c r="B187">
         <v>36960302</v>
       </c>
-      <c r="C187">
+      <c r="C187" t="s">
+        <v>89</v>
+      </c>
+      <c r="D187">
         <v>36963373</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>0</v>
       </c>
       <c r="B188">
         <v>36994809</v>
       </c>
-      <c r="C188">
+      <c r="C188" t="s">
+        <v>30</v>
+      </c>
+      <c r="D188">
         <v>37000943</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>0</v>
       </c>
       <c r="B189">
         <v>37022673</v>
       </c>
-      <c r="C189">
+      <c r="C189" t="s">
+        <v>131</v>
+      </c>
+      <c r="D189">
         <v>37031306</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>0</v>
       </c>
       <c r="B190">
         <v>37123979</v>
       </c>
-      <c r="C190">
+      <c r="C190" t="s">
+        <v>107</v>
+      </c>
+      <c r="D190">
         <v>37124270</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>0</v>
       </c>
       <c r="B191">
         <v>37168654</v>
       </c>
-      <c r="C191">
+      <c r="C191" t="s">
+        <v>132</v>
+      </c>
+      <c r="D191">
         <v>37169188</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>0</v>
       </c>
       <c r="B192">
         <v>37250672</v>
       </c>
-      <c r="C192">
+      <c r="C192" t="s">
+        <v>133</v>
+      </c>
+      <c r="D192">
         <v>37255085</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>0</v>
       </c>
       <c r="B193">
         <v>37272420</v>
       </c>
-      <c r="C193">
+      <c r="C193" t="s">
+        <v>134</v>
+      </c>
+      <c r="D193">
         <v>37272909</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>0</v>
       </c>
       <c r="B194">
         <v>37286571</v>
       </c>
-      <c r="C194">
+      <c r="C194" t="s">
+        <v>135</v>
+      </c>
+      <c r="D194">
         <v>37286927</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>0</v>
       </c>
       <c r="B195">
         <v>37302874</v>
       </c>
-      <c r="C195">
+      <c r="C195" t="s">
+        <v>136</v>
+      </c>
+      <c r="D195">
         <v>37344931</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>0</v>
       </c>
       <c r="B196">
         <v>37401677</v>
       </c>
-      <c r="C196">
+      <c r="C196" t="s">
+        <v>13</v>
+      </c>
+      <c r="D196">
         <v>37402108</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>0</v>
       </c>
       <c r="B197">
         <v>37419307</v>
       </c>
-      <c r="C197">
+      <c r="C197" t="s">
+        <v>40</v>
+      </c>
+      <c r="D197">
         <v>37419876</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>0</v>
       </c>
       <c r="B198">
         <v>37468895</v>
       </c>
-      <c r="C198">
+      <c r="C198" t="s">
+        <v>137</v>
+      </c>
+      <c r="D198">
         <v>37486105</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>0</v>
       </c>
       <c r="B199">
         <v>37491105</v>
       </c>
-      <c r="C199">
+      <c r="C199" t="s">
+        <v>111</v>
+      </c>
+      <c r="D199">
         <v>37503275</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>0</v>
       </c>
       <c r="B200">
         <v>37522172</v>
       </c>
-      <c r="C200">
+      <c r="C200" t="s">
+        <v>108</v>
+      </c>
+      <c r="D200">
         <v>37533904</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>0</v>
       </c>
       <c r="B201">
         <v>37543516</v>
       </c>
-      <c r="C201">
+      <c r="C201" t="s">
+        <v>138</v>
+      </c>
+      <c r="D201">
         <v>37544747</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>0</v>
       </c>
       <c r="B202">
         <v>37585637</v>
       </c>
-      <c r="C202">
+      <c r="C202" t="s">
+        <v>15</v>
+      </c>
+      <c r="D202">
         <v>37586538</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>0</v>
       </c>
       <c r="B203">
         <v>37613926</v>
       </c>
-      <c r="C203">
+      <c r="C203" t="s">
+        <v>29</v>
+      </c>
+      <c r="D203">
         <v>37647612</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>0</v>
       </c>
       <c r="B204">
         <v>37678419</v>
       </c>
-      <c r="C204">
+      <c r="C204" t="s">
+        <v>20</v>
+      </c>
+      <c r="D204">
         <v>37710515</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>0</v>
       </c>
       <c r="B205">
         <v>37744393</v>
       </c>
-      <c r="C205">
+      <c r="C205" t="s">
+        <v>23</v>
+      </c>
+      <c r="D205">
         <v>37744612</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>0</v>
       </c>
       <c r="B206">
         <v>37829438</v>
       </c>
-      <c r="C206">
+      <c r="C206" t="s">
+        <v>53</v>
+      </c>
+      <c r="D206">
         <v>37830518</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>0</v>
       </c>
       <c r="B207">
         <v>37846912</v>
       </c>
-      <c r="C207">
+      <c r="C207" t="s">
+        <v>135</v>
+      </c>
+      <c r="D207">
         <v>37851208</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>0</v>
       </c>
       <c r="B208">
         <v>37884504</v>
       </c>
-      <c r="C208">
+      <c r="C208" t="s">
+        <v>26</v>
+      </c>
+      <c r="D208">
         <v>37884783</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>0</v>
       </c>
       <c r="B209">
         <v>38004396</v>
       </c>
-      <c r="C209">
+      <c r="C209" t="s">
+        <v>139</v>
+      </c>
+      <c r="D209">
         <v>38011969</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>0</v>
       </c>
       <c r="B210">
         <v>38049457</v>
       </c>
-      <c r="C210">
+      <c r="C210" t="s">
+        <v>21</v>
+      </c>
+      <c r="D210">
         <v>38049952</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>0</v>
       </c>
       <c r="B211">
         <v>38185512</v>
       </c>
-      <c r="C211">
+      <c r="C211" t="s">
+        <v>13</v>
+      </c>
+      <c r="D211">
         <v>38185900</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>0</v>
       </c>
       <c r="B212">
         <v>38271345</v>
       </c>
-      <c r="C212">
+      <c r="C212" t="s">
+        <v>140</v>
+      </c>
+      <c r="D212">
         <v>38271686</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>0</v>
       </c>
       <c r="B213">
         <v>38343306</v>
       </c>
-      <c r="C213">
+      <c r="C213" t="s">
+        <v>14</v>
+      </c>
+      <c r="D213">
         <v>38343524</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>0</v>
       </c>
       <c r="B214">
         <v>38363617</v>
       </c>
-      <c r="C214">
+      <c r="C214" t="s">
+        <v>58</v>
+      </c>
+      <c r="D214">
         <v>38363825</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>0</v>
       </c>
       <c r="B215">
         <v>38395069</v>
       </c>
-      <c r="C215">
+      <c r="C215" t="s">
+        <v>141</v>
+      </c>
+      <c r="D215">
         <v>38407491</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>0</v>
       </c>
       <c r="B216">
         <v>38557397</v>
       </c>
-      <c r="C216">
+      <c r="C216" t="s">
+        <v>142</v>
+      </c>
+      <c r="D216">
         <v>38558262</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>0</v>
       </c>
       <c r="B217">
         <v>38580605</v>
       </c>
-      <c r="C217">
+      <c r="C217" t="s">
+        <v>143</v>
+      </c>
+      <c r="D217">
         <v>38580912</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>0</v>
       </c>
       <c r="B218">
         <v>38601723</v>
       </c>
-      <c r="C218">
+      <c r="C218" t="s">
+        <v>144</v>
+      </c>
+      <c r="D218">
         <v>38602557</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>0</v>
       </c>
       <c r="B219">
         <v>38632577</v>
       </c>
-      <c r="C219">
+      <c r="C219" t="s">
+        <v>141</v>
+      </c>
+      <c r="D219">
         <v>38636814</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>0</v>
       </c>
       <c r="B220">
         <v>38657487</v>
       </c>
-      <c r="C220">
+      <c r="C220" t="s">
+        <v>96</v>
+      </c>
+      <c r="D220">
         <v>38666058</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>0</v>
       </c>
       <c r="B221">
         <v>38693978</v>
       </c>
-      <c r="C221">
+      <c r="C221" t="s">
+        <v>145</v>
+      </c>
+      <c r="D221">
         <v>38696414</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>0</v>
       </c>
       <c r="B222">
         <v>38777406</v>
       </c>
-      <c r="C222">
+      <c r="C222" t="s">
+        <v>146</v>
+      </c>
+      <c r="D222">
         <v>38787818</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>0</v>
       </c>
       <c r="B223">
         <v>38862294</v>
       </c>
-      <c r="C223">
+      <c r="C223" t="s">
+        <v>147</v>
+      </c>
+      <c r="D223">
         <v>38862478</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>0</v>
       </c>
       <c r="B224">
         <v>38883748</v>
       </c>
-      <c r="C224">
+      <c r="C224" t="s">
+        <v>36</v>
+      </c>
+      <c r="D224">
         <v>38886558</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>0</v>
       </c>
       <c r="B225">
         <v>38902528</v>
       </c>
-      <c r="C225">
+      <c r="C225" t="s">
+        <v>148</v>
+      </c>
+      <c r="D225">
         <v>38903037</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>0</v>
       </c>
       <c r="B226">
         <v>38934746</v>
       </c>
-      <c r="C226">
+      <c r="C226" t="s">
+        <v>34</v>
+      </c>
+      <c r="D226">
         <v>38934947</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>0</v>
       </c>
       <c r="B227">
         <v>38963642</v>
       </c>
-      <c r="C227">
+      <c r="C227" t="s">
+        <v>149</v>
+      </c>
+      <c r="D227">
         <v>38964035</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>0</v>
       </c>
       <c r="B228">
         <v>39001082</v>
       </c>
-      <c r="C228">
+      <c r="C228" t="s">
+        <v>146</v>
+      </c>
+      <c r="D228">
         <v>39011161</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>0</v>
       </c>
       <c r="B229">
         <v>39025041</v>
       </c>
-      <c r="C229">
+      <c r="C229" t="s">
+        <v>94</v>
+      </c>
+      <c r="D229">
         <v>39025664</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>0</v>
       </c>
       <c r="B230">
         <v>39046613</v>
       </c>
-      <c r="C230">
+      <c r="C230" t="s">
+        <v>9</v>
+      </c>
+      <c r="D230">
         <v>39047116</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>0</v>
       </c>
       <c r="B231">
         <v>39069453</v>
       </c>
-      <c r="C231">
+      <c r="C231" t="s">
+        <v>13</v>
+      </c>
+      <c r="D231">
         <v>39069920</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>0</v>
       </c>
       <c r="B232">
         <v>39089720</v>
       </c>
-      <c r="C232">
+      <c r="C232" t="s">
+        <v>141</v>
+      </c>
+      <c r="D232">
         <v>39105881</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>0</v>
       </c>
       <c r="B233">
         <v>39122341</v>
       </c>
-      <c r="C233">
+      <c r="C233" t="s">
+        <v>15</v>
+      </c>
+      <c r="D233">
         <v>39123560</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>0</v>
       </c>
       <c r="B234">
         <v>39141256</v>
       </c>
-      <c r="C234">
+      <c r="C234" t="s">
+        <v>24</v>
+      </c>
+      <c r="D234">
         <v>39141443</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>0</v>
       </c>
       <c r="B235">
         <v>39204902</v>
       </c>
-      <c r="C235">
+      <c r="C235" t="s">
+        <v>63</v>
+      </c>
+      <c r="D235">
         <v>39211243</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>0</v>
       </c>
       <c r="B236">
         <v>39234707</v>
       </c>
-      <c r="C236">
+      <c r="C236" t="s">
+        <v>108</v>
+      </c>
+      <c r="D236">
         <v>39235272</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>0</v>
       </c>
       <c r="B237">
         <v>39280857</v>
       </c>
-      <c r="C237">
+      <c r="C237" t="s">
+        <v>150</v>
+      </c>
+      <c r="D237">
         <v>39281632</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>0</v>
       </c>
       <c r="B238">
         <v>39340648</v>
       </c>
-      <c r="C238">
+      <c r="C238" t="s">
+        <v>151</v>
+      </c>
+      <c r="D238">
         <v>39345884</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>0</v>
       </c>
       <c r="B239">
         <v>39382896</v>
       </c>
-      <c r="C239">
+      <c r="C239" t="s">
+        <v>26</v>
+      </c>
+      <c r="D239">
         <v>39396871</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>0</v>
       </c>
       <c r="B240">
         <v>39417812</v>
       </c>
-      <c r="C240">
+      <c r="C240" t="s">
+        <v>152</v>
+      </c>
+      <c r="D240">
         <v>39418224</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>0</v>
       </c>
       <c r="B241">
         <v>39455610</v>
       </c>
-      <c r="C241">
+      <c r="C241" t="s">
+        <v>116</v>
+      </c>
+      <c r="D241">
         <v>39456010</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>0</v>
       </c>
       <c r="B242">
         <v>39503046</v>
       </c>
-      <c r="C242">
+      <c r="C242" t="s">
+        <v>21</v>
+      </c>
+      <c r="D242">
         <v>39503527</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>0</v>
       </c>
       <c r="B243">
         <v>39522588</v>
       </c>
-      <c r="C243">
+      <c r="C243" t="s">
+        <v>57</v>
+      </c>
+      <c r="D243">
         <v>39530701</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>0</v>
       </c>
       <c r="B244">
         <v>39545630</v>
       </c>
-      <c r="C244">
+      <c r="C244" t="s">
+        <v>153</v>
+      </c>
+      <c r="D244">
         <v>39546340</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>0</v>
       </c>
       <c r="B245">
         <v>39551340</v>
       </c>
-      <c r="C245">
+      <c r="C245" t="s">
+        <v>10</v>
+      </c>
+      <c r="D245">
         <v>39572135</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>0</v>
       </c>
       <c r="B246">
         <v>39584755</v>
       </c>
-      <c r="C246">
+      <c r="C246" t="s">
+        <v>154</v>
+      </c>
+      <c r="D246">
         <v>39585608</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>0</v>
       </c>
       <c r="B247">
         <v>39601244</v>
       </c>
-      <c r="C247">
+      <c r="C247" t="s">
+        <v>155</v>
+      </c>
+      <c r="D247">
         <v>39615189</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>0</v>
       </c>
       <c r="B248">
         <v>39680564</v>
       </c>
-      <c r="C248">
+      <c r="C248" t="s">
+        <v>32</v>
+      </c>
+      <c r="D248">
         <v>39686254</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>0</v>
       </c>
       <c r="B249">
         <v>39703067</v>
       </c>
-      <c r="C249">
+      <c r="C249" t="s">
+        <v>144</v>
+      </c>
+      <c r="D249">
         <v>39714474</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>0</v>
       </c>
       <c r="B250">
         <v>39734058</v>
       </c>
-      <c r="C250">
+      <c r="C250" t="s">
+        <v>104</v>
+      </c>
+      <c r="D250">
         <v>39762418</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>0</v>
       </c>
       <c r="B251">
         <v>39842049</v>
       </c>
-      <c r="C251">
+      <c r="C251" t="s">
+        <v>156</v>
+      </c>
+      <c r="D251">
         <v>39843749</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>0</v>
       </c>
       <c r="B252">
         <v>39856934</v>
       </c>
-      <c r="C252">
+      <c r="C252" t="s">
+        <v>157</v>
+      </c>
+      <c r="D252">
         <v>39857156</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>0</v>
       </c>
       <c r="B253">
         <v>39889231</v>
       </c>
-      <c r="C253">
+      <c r="C253" t="s">
+        <v>86</v>
+      </c>
+      <c r="D253">
         <v>39898412</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>0</v>
       </c>
       <c r="B254">
         <v>39903412</v>
       </c>
-      <c r="C254">
+      <c r="C254" t="s">
+        <v>158</v>
+      </c>
+      <c r="D254">
         <v>39987437</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>0</v>
       </c>
       <c r="B255">
         <v>40000928</v>
       </c>
-      <c r="C255">
+      <c r="C255" t="s">
+        <v>159</v>
+      </c>
+      <c r="D255">
         <v>40008408</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>0</v>
       </c>
       <c r="B256">
         <v>40022648</v>
       </c>
-      <c r="C256">
+      <c r="C256" t="s">
+        <v>2</v>
+      </c>
+      <c r="D256">
         <v>40023154</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>0</v>
       </c>
       <c r="B257">
         <v>40045664</v>
       </c>
-      <c r="C257">
+      <c r="C257" t="s">
+        <v>160</v>
+      </c>
+      <c r="D257">
         <v>40059508</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>0</v>
       </c>
       <c r="B258">
         <v>40115334</v>
       </c>
-      <c r="C258">
+      <c r="C258" t="s">
+        <v>161</v>
+      </c>
+      <c r="D258">
         <v>40116867</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>0</v>
       </c>
       <c r="B259">
         <v>40161184</v>
       </c>
-      <c r="C259">
+      <c r="C259" t="s">
+        <v>108</v>
+      </c>
+      <c r="D259">
         <v>40161631</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>0</v>
       </c>
       <c r="B260">
         <v>40190050</v>
       </c>
-      <c r="C260">
+      <c r="C260" t="s">
+        <v>162</v>
+      </c>
+      <c r="D260">
         <v>40190376</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>0</v>
       </c>
       <c r="B261">
         <v>40262797</v>
       </c>
-      <c r="C261">
+      <c r="C261" t="s">
+        <v>163</v>
+      </c>
+      <c r="D261">
         <v>40264085</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>0</v>
       </c>
       <c r="B262">
         <v>40269085</v>
       </c>
-      <c r="C262">
+      <c r="C262" t="s">
+        <v>58</v>
+      </c>
+      <c r="D262">
         <v>40271569</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>0</v>
       </c>
       <c r="B263">
         <v>40290653</v>
       </c>
-      <c r="C263">
+      <c r="C263" t="s">
+        <v>116</v>
+      </c>
+      <c r="D263">
         <v>40290876</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>0</v>
       </c>
       <c r="B264">
         <v>40315458</v>
       </c>
-      <c r="C264">
+      <c r="C264" t="s">
+        <v>164</v>
+      </c>
+      <c r="D264">
         <v>40315873</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>0</v>
       </c>
       <c r="B265">
         <v>40330426</v>
       </c>
-      <c r="C265">
+      <c r="C265" t="s">
+        <v>15</v>
+      </c>
+      <c r="D265">
         <v>40330869</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>0</v>
       </c>
       <c r="B266">
         <v>40355977</v>
       </c>
-      <c r="C266">
+      <c r="C266" t="s">
+        <v>165</v>
+      </c>
+      <c r="D266">
         <v>40356172</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>0</v>
       </c>
       <c r="B267">
         <v>40380048</v>
       </c>
-      <c r="C267">
+      <c r="C267" t="s">
+        <v>166</v>
+      </c>
+      <c r="D267">
         <v>40394843</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>0</v>
       </c>
       <c r="B268">
         <v>40444725</v>
       </c>
-      <c r="C268">
+      <c r="C268" t="s">
+        <v>167</v>
+      </c>
+      <c r="D268">
         <v>40445008</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>0</v>
       </c>
       <c r="B269">
         <v>40469832</v>
       </c>
-      <c r="C269">
+      <c r="C269" t="s">
+        <v>168</v>
+      </c>
+      <c r="D269">
         <v>40480068</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>0</v>
       </c>
       <c r="B270">
         <v>40501458</v>
       </c>
-      <c r="C270">
+      <c r="C270" t="s">
+        <v>33</v>
+      </c>
+      <c r="D270">
         <v>40504970</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>0</v>
       </c>
       <c r="B271">
         <v>40522558</v>
       </c>
-      <c r="C271">
+      <c r="C271" t="s">
+        <v>24</v>
+      </c>
+      <c r="D271">
         <v>40524622</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>0</v>
       </c>
       <c r="B272">
         <v>40544693</v>
       </c>
-      <c r="C272">
+      <c r="C272" t="s">
+        <v>58</v>
+      </c>
+      <c r="D272">
         <v>40544980</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>0</v>
       </c>
       <c r="B273">
         <v>40687941</v>
       </c>
-      <c r="C273">
+      <c r="C273" t="s">
+        <v>169</v>
+      </c>
+      <c r="D273">
         <v>40688178</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>0</v>
       </c>
       <c r="B274">
         <v>40797259</v>
       </c>
-      <c r="C274">
+      <c r="C274" t="s">
+        <v>170</v>
+      </c>
+      <c r="D274">
         <v>40797763</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>0</v>
       </c>
       <c r="B275">
         <v>42915022</v>
       </c>
-      <c r="C275">
+      <c r="C275" t="s">
+        <v>157</v>
+      </c>
+      <c r="D275">
         <v>42915462</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>0</v>
       </c>
       <c r="B276">
         <v>42983740</v>
       </c>
-      <c r="C276">
+      <c r="C276" t="s">
+        <v>125</v>
+      </c>
+      <c r="D276">
         <v>42984598</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>0</v>
       </c>
       <c r="B277">
         <v>43065917</v>
       </c>
-      <c r="C277">
+      <c r="C277" t="s">
+        <v>171</v>
+      </c>
+      <c r="D277">
         <v>43078396</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>0</v>
       </c>
       <c r="B278">
         <v>43091563</v>
       </c>
-      <c r="C278">
+      <c r="C278" t="s">
+        <v>172</v>
+      </c>
+      <c r="D278">
         <v>43096122</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>0</v>
       </c>
       <c r="B279">
         <v>43101209</v>
       </c>
-      <c r="C279">
+      <c r="C279" t="s">
+        <v>148</v>
+      </c>
+      <c r="D279">
         <v>43113232</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>0</v>
       </c>
       <c r="B280">
         <v>43127629</v>
       </c>
-      <c r="C280">
+      <c r="C280" t="s">
+        <v>29</v>
+      </c>
+      <c r="D280">
         <v>43143915</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>0</v>
       </c>
       <c r="B281">
         <v>43168647</v>
       </c>
-      <c r="C281">
+      <c r="C281" t="s">
+        <v>173</v>
+      </c>
+      <c r="D281">
         <v>43169203</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>0</v>
       </c>
       <c r="B282">
         <v>43182151</v>
       </c>
-      <c r="C282">
+      <c r="C282" t="s">
+        <v>17</v>
+      </c>
+      <c r="D282">
         <v>43183449</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>0</v>
       </c>
       <c r="B283">
         <v>43199943</v>
       </c>
-      <c r="C283">
+      <c r="C283" t="s">
+        <v>174</v>
+      </c>
+      <c r="D283">
         <v>43207626</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>0</v>
       </c>
       <c r="B284">
         <v>43223985</v>
       </c>
-      <c r="C284">
+      <c r="C284" t="s">
+        <v>175</v>
+      </c>
+      <c r="D284">
         <v>43225933</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>0</v>
       </c>
       <c r="B285">
         <v>43241147</v>
       </c>
-      <c r="C285">
+      <c r="C285" t="s">
+        <v>176</v>
+      </c>
+      <c r="D285">
         <v>43241727</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>0</v>
       </c>
       <c r="B286">
         <v>43264383</v>
       </c>
-      <c r="C286">
+      <c r="C286" t="s">
+        <v>31</v>
+      </c>
+      <c r="D286">
         <v>43264832</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>0</v>
       </c>
       <c r="B287">
         <v>43299399</v>
       </c>
-      <c r="C287">
+      <c r="C287" t="s">
+        <v>177</v>
+      </c>
+      <c r="D287">
         <v>43311672</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>0</v>
       </c>
       <c r="B288">
         <v>43353608</v>
       </c>
-      <c r="C288">
+      <c r="C288" t="s">
+        <v>133</v>
+      </c>
+      <c r="D288">
         <v>43376192</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>0</v>
       </c>
       <c r="B289">
         <v>43388987</v>
       </c>
-      <c r="C289">
+      <c r="C289" t="s">
+        <v>178</v>
+      </c>
+      <c r="D289">
         <v>43389494</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>0</v>
       </c>
       <c r="B290">
         <v>43403259</v>
       </c>
-      <c r="C290">
+      <c r="C290" t="s">
+        <v>63</v>
+      </c>
+      <c r="D290">
         <v>43403893</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>0</v>
       </c>
       <c r="B291">
         <v>43456661</v>
       </c>
-      <c r="C291">
+      <c r="C291" t="s">
+        <v>105</v>
+      </c>
+      <c r="D291">
         <v>43545034</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>0</v>
       </c>
       <c r="B292">
         <v>43561908</v>
       </c>
-      <c r="C292">
+      <c r="C292" t="s">
+        <v>22</v>
+      </c>
+      <c r="D292">
         <v>43563591</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>0</v>
       </c>
       <c r="B293">
         <v>43592061</v>
       </c>
-      <c r="C293">
+      <c r="C293" t="s">
+        <v>179</v>
+      </c>
+      <c r="D293">
         <v>43592470</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>0</v>
       </c>
       <c r="B294">
         <v>43606151</v>
       </c>
-      <c r="C294">
+      <c r="C294" t="s">
+        <v>135</v>
+      </c>
+      <c r="D294">
         <v>43606451</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>0</v>
       </c>
       <c r="B295">
         <v>43635706</v>
       </c>
-      <c r="C295">
+      <c r="C295" t="s">
+        <v>102</v>
+      </c>
+      <c r="D295">
         <v>43636139</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>0</v>
       </c>
       <c r="B296">
         <v>43760140</v>
       </c>
-      <c r="C296">
+      <c r="C296" t="s">
+        <v>109</v>
+      </c>
+      <c r="D296">
         <v>43769193</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>0</v>
       </c>
       <c r="B297">
         <v>43811800</v>
       </c>
-      <c r="C297">
+      <c r="C297" t="s">
+        <v>24</v>
+      </c>
+      <c r="D297">
         <v>43812129</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>0</v>
       </c>
       <c r="B298">
         <v>43843469</v>
       </c>
-      <c r="C298">
+      <c r="C298" t="s">
+        <v>10</v>
+      </c>
+      <c r="D298">
         <v>43846337</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>0</v>
       </c>
       <c r="B299">
         <v>43879912</v>
       </c>
-      <c r="C299">
+      <c r="C299" t="s">
+        <v>162</v>
+      </c>
+      <c r="D299">
         <v>43915717</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>0</v>
       </c>
       <c r="B300">
         <v>43939065</v>
       </c>
-      <c r="C300">
+      <c r="C300" t="s">
+        <v>180</v>
+      </c>
+      <c r="D300">
         <v>43950062</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>0</v>
       </c>
       <c r="B301">
         <v>43966844</v>
       </c>
-      <c r="C301">
+      <c r="C301" t="s">
+        <v>30</v>
+      </c>
+      <c r="D301">
         <v>43967097</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>0</v>
       </c>
       <c r="B302">
         <v>44009711</v>
       </c>
-      <c r="C302">
+      <c r="C302" t="s">
+        <v>181</v>
+      </c>
+      <c r="D302">
         <v>44009945</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>0</v>
       </c>
       <c r="B303">
         <v>44032175</v>
       </c>
-      <c r="C303">
+      <c r="C303" t="s">
+        <v>53</v>
+      </c>
+      <c r="D303">
         <v>44042658</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>0</v>
       </c>
       <c r="B304">
         <v>44060674</v>
       </c>
-      <c r="C304">
+      <c r="C304" t="s">
+        <v>182</v>
+      </c>
+      <c r="D304">
         <v>44065056</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>0</v>
       </c>
       <c r="B305">
         <v>44155298</v>
       </c>
-      <c r="C305">
+      <c r="C305" t="s">
+        <v>30</v>
+      </c>
+      <c r="D305">
         <v>44155657</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>0</v>
       </c>
       <c r="B306">
         <v>44173181</v>
       </c>
-      <c r="C306">
+      <c r="C306" t="s">
+        <v>58</v>
+      </c>
+      <c r="D306">
         <v>44173535</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>0</v>
       </c>
       <c r="B307">
         <v>44413385</v>
       </c>
-      <c r="C307">
+      <c r="C307" t="s">
+        <v>13</v>
+      </c>
+      <c r="D307">
         <v>44413574</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>0</v>
       </c>
       <c r="B308">
         <v>45766222</v>
       </c>
-      <c r="C308">
+      <c r="C308" t="s">
+        <v>15</v>
+      </c>
+      <c r="D308">
         <v>45766525</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>0</v>
       </c>
       <c r="B309">
         <v>45816827</v>
       </c>
-      <c r="C309">
+      <c r="C309" t="s">
+        <v>125</v>
+      </c>
+      <c r="D309">
         <v>45825606</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>0</v>
       </c>
       <c r="B310">
         <v>46075937</v>
       </c>
-      <c r="C310">
+      <c r="C310" t="s">
+        <v>144</v>
+      </c>
+      <c r="D310">
         <v>46076169</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>0</v>
       </c>
       <c r="B311">
         <v>46292837</v>
       </c>
-      <c r="C311">
+      <c r="C311" t="s">
+        <v>108</v>
+      </c>
+      <c r="D311">
         <v>46293089</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>0</v>
       </c>
       <c r="B312">
         <v>46425088</v>
       </c>
-      <c r="C312">
+      <c r="C312" t="s">
+        <v>156</v>
+      </c>
+      <c r="D312">
         <v>46425957</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>0</v>
       </c>
       <c r="B313">
         <v>46769366</v>
       </c>
-      <c r="C313">
+      <c r="C313" t="s">
+        <v>183</v>
+      </c>
+      <c r="D313">
         <v>46769610</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>0</v>
       </c>
       <c r="B314">
         <v>46843525</v>
       </c>
-      <c r="C314">
+      <c r="C314" t="s">
+        <v>58</v>
+      </c>
+      <c r="D314">
         <v>46850324</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>0</v>
       </c>
       <c r="B315">
         <v>46863981</v>
       </c>
-      <c r="C315">
+      <c r="C315" t="s">
+        <v>147</v>
+      </c>
+      <c r="D315">
         <v>46923401</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>0</v>
       </c>
       <c r="B316">
         <v>46940160</v>
       </c>
-      <c r="C316">
+      <c r="C316" t="s">
+        <v>184</v>
+      </c>
+      <c r="D316">
         <v>46940405</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>0</v>
       </c>
       <c r="B317">
         <v>46966139</v>
       </c>
-      <c r="C317">
+      <c r="C317" t="s">
+        <v>141</v>
+      </c>
+      <c r="D317">
         <v>46970883</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>0</v>
       </c>
       <c r="B318">
         <v>48881326</v>
       </c>
-      <c r="C318">
+      <c r="C318" t="s">
+        <v>9</v>
+      </c>
+      <c r="D318">
         <v>48881811</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>0</v>
       </c>
       <c r="B319">
         <v>50962306</v>
       </c>
-      <c r="C319">
+      <c r="C319" t="s">
+        <v>132</v>
+      </c>
+      <c r="D319">
         <v>50962685</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>0</v>
       </c>
       <c r="B320">
         <v>51008273</v>
       </c>
-      <c r="C320">
+      <c r="C320" t="s">
+        <v>185</v>
+      </c>
+      <c r="D320">
         <v>51008683</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>0</v>
       </c>
       <c r="B321">
         <v>51092334</v>
       </c>
-      <c r="C321">
+      <c r="C321" t="s">
+        <v>186</v>
+      </c>
+      <c r="D321">
         <v>51105157</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>0</v>
       </c>
       <c r="B322">
         <v>51120892</v>
       </c>
-      <c r="C322">
+      <c r="C322" t="s">
+        <v>24</v>
+      </c>
+      <c r="D322">
         <v>51126634</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>0</v>
       </c>
       <c r="B323">
         <v>51354538</v>
       </c>
-      <c r="C323">
+      <c r="C323" t="s">
+        <v>106</v>
+      </c>
+      <c r="D323">
         <v>51354946</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>0</v>
       </c>
       <c r="B324">
         <v>51448578</v>
       </c>
-      <c r="C324">
+      <c r="C324" t="s">
+        <v>173</v>
+      </c>
+      <c r="D324">
         <v>51466917</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>0</v>
       </c>
       <c r="B325">
         <v>51501046</v>
       </c>
-      <c r="C325">
+      <c r="C325" t="s">
+        <v>118</v>
+      </c>
+      <c r="D325">
         <v>51547078</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>0</v>
       </c>
       <c r="B326">
         <v>51570334</v>
       </c>
-      <c r="C326">
+      <c r="C326" t="s">
+        <v>148</v>
+      </c>
+      <c r="D326">
         <v>51600876</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>0</v>
       </c>
       <c r="B327">
         <v>51614863</v>
       </c>
-      <c r="C327">
+      <c r="C327" t="s">
+        <v>108</v>
+      </c>
+      <c r="D327">
         <v>51626735</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>0</v>
       </c>
       <c r="B328">
         <v>51644387</v>
       </c>
-      <c r="C328">
+      <c r="C328" t="s">
+        <v>60</v>
+      </c>
+      <c r="D328">
         <v>51644755</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>0</v>
       </c>
       <c r="B329">
         <v>51669990</v>
       </c>
-      <c r="C329">
+      <c r="C329" t="s">
+        <v>22</v>
+      </c>
+      <c r="D329">
         <v>51670401</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>0</v>
       </c>
       <c r="B330">
         <v>51875472</v>
       </c>
-      <c r="C330">
+      <c r="C330" t="s">
+        <v>187</v>
+      </c>
+      <c r="D330">
         <v>51875909</v>
       </c>
     </row>
